--- a/biology/Zoologie/Culex/Culex.xlsx
+++ b/biology/Zoologie/Culex/Culex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Culex Écouter définit un genre de moustiques (insecte diptère) dont diverses espèces sont vectrices de pathogènes importants, tels que le virus de la fièvre du Nil occidental (virus du Nil occidental), de l'encéphalite de Saint-Louis, de l'encéphalite japonaise (Cx. tritaeniorhynchus.), de l'encéphalite de la Murray Valley (MVEV) (Cx. annulirostris) et le paludisme aviaire (Culex pipiens) ou de W. bancrofti  à l'origine de la filariose (Cx quinquefasciatus).
 </t>
@@ -511,7 +523,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les soies postspiraculaires sont absentes. Les griffes des femelles sont simples. L'abdomen de la femelle a son apex obtus.
 Les pulvilli sont présents à l'extrémité des pattes, ce qui est caractéristique du genre Culex. Les palpes du mâle sont souvent grêles et tournés vers le haut.
@@ -543,7 +557,9 @@
           <t>Cycle de vie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cycle de développement prend deux semaines.
 Les œufs sont pondus en groupe (« nacelles »), dans tous les types d'eaux, souvent riches en matière organique.
@@ -575,7 +591,9 @@
           <t>Liste des sous-genres et espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe plusieurs espèces très voisines morphologiquement mais différentiables par la morphologie de leurs pièces génitales.
 Sous-genres
